--- a/thresholds/IGCSE/history/history-thresholds.xlsx
+++ b/thresholds/IGCSE/history/history-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,77 +739,77 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AX 03,11,21</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F8" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AY 03,12,22</t>
+          <t>AX 03,11,21</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>150</v>
       </c>
       <c r="C9" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D9" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F9" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G9" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H9" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -821,7 +821,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AZ 03,13,23</t>
+          <t>AY 03,12,22</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -862,36 +862,36 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BX 11,21,41</t>
+          <t>AZ 03,13,23</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>150</v>
       </c>
       <c r="C11" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E11" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F11" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G11" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H11" t="n">
+        <v>38</v>
+      </c>
+      <c r="I11" t="n">
         <v>29</v>
       </c>
-      <c r="I11" t="n">
-        <v>22</v>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -903,36 +903,36 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BY 12,22,42</t>
+          <t>BX 11,21,41</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F12" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,23,43</t>
+          <t>BY 12,22,42</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -985,36 +985,36 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CX 11,21,83</t>
+          <t>BZ 13,23,43</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F14" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G14" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1026,36 +1026,36 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CY 12,22,83</t>
+          <t>CX 11,21,83</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>150</v>
       </c>
       <c r="C15" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D15" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F15" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G15" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H15" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1067,7 +1067,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CZ 13,23,83</t>
+          <t>CY 12,22,83</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1108,20 +1108,20 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AX 03,11,21</t>
+          <t>CZ 13,23,83</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>150</v>
       </c>
       <c r="C17" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="n">
         <v>61</v>
@@ -1142,84 +1142,84 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AY 03,12,22</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C18" t="n">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D18" t="n">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F18" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G18" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I18" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AZ 03,13,23</t>
+          <t>AX 03,11,21</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>150</v>
       </c>
       <c r="C19" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D19" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E19" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F19" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G19" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H19" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I19" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1231,36 +1231,36 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>BX 11,21,41</t>
+          <t>AY 03,12,22</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>150</v>
       </c>
       <c r="C20" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E20" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F20" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G20" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H20" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I20" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1272,36 +1272,36 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>BY 12,22,42</t>
+          <t>AZ 03,13,23</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>150</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D21" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E21" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F21" t="n">
+        <v>67</v>
+      </c>
+      <c r="G21" t="n">
         <v>55</v>
       </c>
-      <c r="G21" t="n">
-        <v>46</v>
-      </c>
       <c r="H21" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I21" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1313,36 +1313,36 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,23,43</t>
+          <t>BX 11,21,41</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>150</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D22" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E22" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F22" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G22" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I22" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1354,36 +1354,36 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CX 11,21,83</t>
+          <t>BY 12,22,42</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>150</v>
       </c>
       <c r="C23" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F23" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G23" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H23" t="n">
         <v>38</v>
       </c>
       <c r="I23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1395,36 +1395,36 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>CY 12,22,83</t>
+          <t>BZ 13,23,43</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>150</v>
       </c>
       <c r="C24" t="n">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E24" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F24" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G24" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H24" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1436,164 +1436,164 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AX 03,11,21</t>
+          <t>CX 11,21,83</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>150</v>
       </c>
       <c r="C25" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D25" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F25" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G25" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H25" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AY 03,12,22</t>
+          <t>CY 12,22,83</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>150</v>
       </c>
       <c r="C26" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D26" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F26" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I26" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AZ 03,13,23</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C27" t="n">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D27" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H27" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I27" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>BX 11,21,41</t>
+          <t>AY 03,12,22</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D28" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E28" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F28" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H28" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I28" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E29" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F29" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G29" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H29" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1634,43 +1634,43 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,23,43</t>
+          <t>AX 03,11,21</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>150</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D30" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E30" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F30" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G30" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H30" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1682,7 +1682,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>CY 12,22,83</t>
+          <t>AY 03,12,22</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1723,282 +1723,282 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AX 03,11,21</t>
+          <t>AZ 03,13,23</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>150</v>
       </c>
       <c r="C32" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D32" t="n">
         <v>97</v>
       </c>
       <c r="E32" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G32" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H32" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I32" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AY 03,12,22</t>
+          <t>BX 11,21,41</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>150</v>
       </c>
       <c r="C33" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E33" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F33" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G33" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H33" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I33" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AZ 03,13,23</t>
+          <t>BY 12,22,42</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>150</v>
       </c>
       <c r="C34" t="n">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D34" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E34" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F34" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G34" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H34" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I34" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>BX 11,21,41</t>
+          <t>BZ 13,23,43</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>150</v>
       </c>
       <c r="C35" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E35" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F35" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G35" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H35" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I35" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>BY 12,22,42</t>
+          <t>CY 12,22,83</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>150</v>
       </c>
       <c r="C36" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D36" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E36" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F36" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H36" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I36" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,23,43</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C37" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D37" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E37" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F37" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G37" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H37" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I37" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>CY 12,22,83</t>
+          <t>AX 03,11,21</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>150</v>
       </c>
       <c r="C38" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D38" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E38" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F38" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
+        <v>63</v>
+      </c>
+      <c r="H38" t="n">
         <v>55</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>46</v>
       </c>
-      <c r="I38" t="n">
-        <v>38</v>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2010,278 +2010,278 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AX 03,11,21</t>
+          <t>AY 03,12,22</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>150</v>
       </c>
       <c r="C39" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" t="n">
         <v>93</v>
       </c>
       <c r="E39" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G39" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H39" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I39" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AY 03,12,22</t>
+          <t>AZ 03,13,23</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>150</v>
       </c>
       <c r="C40" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D40" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E40" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F40" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G40" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H40" t="n">
         <v>55</v>
       </c>
       <c r="I40" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AZ 03,13,23</t>
+          <t>BX 11,21,41</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>150</v>
       </c>
       <c r="C41" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D41" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E41" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F41" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G41" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H41" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I41" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BX 11,21,41</t>
+          <t>BY 12,22,42</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>150</v>
       </c>
       <c r="C42" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" t="n">
         <v>77</v>
       </c>
       <c r="E42" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G42" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I42" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BY 12,22,42</t>
+          <t>BZ 13,23,43</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>150</v>
       </c>
       <c r="C43" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G43" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="n">
         <v>40</v>
       </c>
       <c r="I43" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,23,43</t>
+          <t>CY 12,22,83</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>150</v>
       </c>
       <c r="C44" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D44" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E44" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F44" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G44" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H44" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I44" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>CY 12,22,83</t>
+          <t>AX 03,11,21</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>150</v>
       </c>
       <c r="C45" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" t="n">
         <v>70</v>
       </c>
       <c r="G45" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H45" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I45" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2304,116 +2304,116 @@
         <v>150</v>
       </c>
       <c r="C46" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D46" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E46" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F46" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G46" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H46" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I46" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>BY 12,22,42</t>
+          <t>AZ 03,13,23</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>150</v>
       </c>
       <c r="C47" t="n">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D47" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E47" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F47" t="n">
+        <v>71</v>
+      </c>
+      <c r="G47" t="n">
+        <v>62</v>
+      </c>
+      <c r="H47" t="n">
         <v>54</v>
       </c>
-      <c r="G47" t="n">
-        <v>47</v>
-      </c>
-      <c r="H47" t="n">
-        <v>41</v>
-      </c>
       <c r="I47" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>AY 03,12,22</t>
+          <t>BX 11,21,41</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>150</v>
       </c>
       <c r="C48" t="n">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D48" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E48" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F48" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G48" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H48" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I48" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
@@ -2427,157 +2427,157 @@
         <v>150</v>
       </c>
       <c r="C49" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D49" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E49" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F49" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H49" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I49" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>AY 03,12,22</t>
+          <t>BZ 13,23,43</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>150</v>
       </c>
       <c r="C50" t="n">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D50" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E50" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F50" t="n">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="G50" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="H50" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I50" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>BY 12,22,42</t>
+          <t>CY 12,22,83</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>150</v>
       </c>
       <c r="C51" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D51" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E51" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F51" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G51" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H51" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I51" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>AX 03,11,21</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C52" t="n">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D52" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="E52" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F52" t="n">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G52" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="H52" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I52" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
@@ -2591,116 +2591,116 @@
         <v>150</v>
       </c>
       <c r="C53" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D53" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E53" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F53" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G53" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H53" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I53" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>AZ 03,13,23</t>
+          <t>BY 12,22,42</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>150</v>
       </c>
       <c r="C54" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D54" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E54" t="n">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F54" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G54" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H54" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I54" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>BX 11,21,41</t>
+          <t>AY 03,12,22</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>150</v>
       </c>
       <c r="C55" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D55" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E55" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F55" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G55" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H55" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I55" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
@@ -2717,133 +2717,133 @@
         <v>99</v>
       </c>
       <c r="D56" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E56" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F56" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G56" t="n">
+        <v>54</v>
+      </c>
+      <c r="H56" t="n">
         <v>47</v>
       </c>
-      <c r="H56" t="n">
-        <v>39</v>
-      </c>
       <c r="I56" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,23,43</t>
+          <t>AY 03,12,22</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>150</v>
       </c>
       <c r="C57" t="n">
+        <v>110</v>
+      </c>
+      <c r="D57" t="n">
         <v>99</v>
       </c>
-      <c r="D57" t="n">
-        <v>84</v>
-      </c>
       <c r="E57" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F57" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G57" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H57" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I57" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>CX 11,21,83</t>
+          <t>BY 12,22,42</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>150</v>
       </c>
       <c r="C58" t="n">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D58" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E58" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F58" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G58" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H58" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I58" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>CY 12,22,83</t>
+          <t>AX 03,11,21</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>150</v>
       </c>
       <c r="C59" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D59" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E59" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F59" t="n">
         <v>74</v>
@@ -2852,17 +2852,304 @@
         <v>64</v>
       </c>
       <c r="H59" t="n">
+        <v>54</v>
+      </c>
+      <c r="I59" t="n">
+        <v>45</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>AY 03,12,22</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>150</v>
+      </c>
+      <c r="C60" t="n">
+        <v>113</v>
+      </c>
+      <c r="D60" t="n">
+        <v>100</v>
+      </c>
+      <c r="E60" t="n">
+        <v>87</v>
+      </c>
+      <c r="F60" t="n">
+        <v>74</v>
+      </c>
+      <c r="G60" t="n">
+        <v>64</v>
+      </c>
+      <c r="H60" t="n">
+        <v>54</v>
+      </c>
+      <c r="I60" t="n">
+        <v>45</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>AZ 03,13,23</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>150</v>
+      </c>
+      <c r="C61" t="n">
+        <v>113</v>
+      </c>
+      <c r="D61" t="n">
+        <v>100</v>
+      </c>
+      <c r="E61" t="n">
+        <v>87</v>
+      </c>
+      <c r="F61" t="n">
+        <v>74</v>
+      </c>
+      <c r="G61" t="n">
+        <v>64</v>
+      </c>
+      <c r="H61" t="n">
+        <v>54</v>
+      </c>
+      <c r="I61" t="n">
+        <v>45</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>BX 11,21,41</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>150</v>
+      </c>
+      <c r="C62" t="n">
+        <v>99</v>
+      </c>
+      <c r="D62" t="n">
+        <v>84</v>
+      </c>
+      <c r="E62" t="n">
+        <v>69</v>
+      </c>
+      <c r="F62" t="n">
         <v>55</v>
       </c>
-      <c r="I59" t="n">
+      <c r="G62" t="n">
+        <v>47</v>
+      </c>
+      <c r="H62" t="n">
+        <v>39</v>
+      </c>
+      <c r="I62" t="n">
+        <v>31</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>BY 12,22,42</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>150</v>
+      </c>
+      <c r="C63" t="n">
+        <v>99</v>
+      </c>
+      <c r="D63" t="n">
+        <v>84</v>
+      </c>
+      <c r="E63" t="n">
+        <v>69</v>
+      </c>
+      <c r="F63" t="n">
+        <v>55</v>
+      </c>
+      <c r="G63" t="n">
+        <v>47</v>
+      </c>
+      <c r="H63" t="n">
+        <v>39</v>
+      </c>
+      <c r="I63" t="n">
+        <v>31</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>BZ 13,23,43</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>150</v>
+      </c>
+      <c r="C64" t="n">
+        <v>99</v>
+      </c>
+      <c r="D64" t="n">
+        <v>84</v>
+      </c>
+      <c r="E64" t="n">
+        <v>69</v>
+      </c>
+      <c r="F64" t="n">
+        <v>55</v>
+      </c>
+      <c r="G64" t="n">
+        <v>47</v>
+      </c>
+      <c r="H64" t="n">
+        <v>39</v>
+      </c>
+      <c r="I64" t="n">
+        <v>31</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>CX 11,21,83</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>150</v>
+      </c>
+      <c r="C65" t="n">
+        <v>112</v>
+      </c>
+      <c r="D65" t="n">
+        <v>99</v>
+      </c>
+      <c r="E65" t="n">
+        <v>86</v>
+      </c>
+      <c r="F65" t="n">
+        <v>74</v>
+      </c>
+      <c r="G65" t="n">
+        <v>64</v>
+      </c>
+      <c r="H65" t="n">
+        <v>55</v>
+      </c>
+      <c r="I65" t="n">
         <v>44</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>CY 12,22,83</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>150</v>
+      </c>
+      <c r="C66" t="n">
+        <v>112</v>
+      </c>
+      <c r="D66" t="n">
+        <v>99</v>
+      </c>
+      <c r="E66" t="n">
+        <v>86</v>
+      </c>
+      <c r="F66" t="n">
+        <v>74</v>
+      </c>
+      <c r="G66" t="n">
+        <v>64</v>
+      </c>
+      <c r="H66" t="n">
+        <v>55</v>
+      </c>
+      <c r="I66" t="n">
+        <v>44</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
